--- a/Output_testing/R1_201907/Country/HKD/MN/PANAMA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/PANAMA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>628.311213</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>37.65789966071617</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>652.808768</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>42.37801359043993</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1083.643234</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>52.85778469139382</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>522.495911</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.46688766468359</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-19.3940299351256</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>229.990131</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>13.7844830665993</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>217.458312</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.11661692217058</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>232.636043</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.34748548833909</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>140.091663</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.79930776602711</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>5.203547185096946</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>16.525058</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.9904311162619901</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>17.01926</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.104829571742564</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>130.874827</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.383792386682696</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>47.489693</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.677829325369229</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>30.84398358998097</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>134.685782</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>8.072406729881315</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>96.50198899999999</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.264564451049905</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>71.218565</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.473888321070841</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>39.330309</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.874113753820926</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-17.71291443503319</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>62.021413</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.717260012626637</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>63.921734</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.149570662899684</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>58.088448</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.833429473007928</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>36.411383</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.586593730446955</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-5.513830578642365</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>20.817284</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.247686140022193</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>23.1128</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.50040042432935</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>19.674568</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.9596830825967091</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>34.977854</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.445388269401602</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>218.7181495791031</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>50.478844</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.025454906756446</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>25.20621</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.636297124525574</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>19.606094</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.9563430682493684</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>31.991073</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.151184393409908</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>130.15937012551</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>6.084112</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3646519025605217</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.703411</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1754957863840224</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>15.813431</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.7713451298402262</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>20.175581</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.987334903558173</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>168.7172812001747</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>81.237917</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>4.869003232370434</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>46.741445</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.03428766362219</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>45.128656</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.201278711864294</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>15.858895</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.562132736864638</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-39.36611767386715</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>49.925684</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.992301203073743</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>38.989939</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.531087580049819</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>33.035928</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.611421466508588</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>15.336944</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.51071952401852</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-18.81934944721582</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>388.393769</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>23.27842202913125</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>355.978245</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>23.10883622278639</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>340.39116</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>16.60354818044643</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>111.048597</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>10.93850793239934</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-45.90962622037134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,495 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>89.81077500000001</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>88.15072928124846</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>89.251351</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>88.13995551927701</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>87.977402</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>90.26510334546326</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.164774</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>24.38307741485881</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-97.30247319724508</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>3.926791</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>3.854208922983271</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.875316</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>1.8519637739107</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.854804</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>1.903034994663501</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.148168</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.03545170931323</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>141.8402445009405</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.93137</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.877187100246861</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>3.932226</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.883260262712937</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>4.048422</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.153694265898498</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.692464</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.49586213205548</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-64.73644918067181</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.680257</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>14.24032395383105</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.1723660203415303</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.4416500403156424</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.4435719996521849</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>8.787942667507087</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>68.28269061172132</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>0.548388</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.5382516978512353</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.548251</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.5414239472229293</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.3414025926589978</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>6.553831010699864</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>250.9770069842266</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>3.85489</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.783636927740484</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>2.950895</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.914149210380657</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>2.438972</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.502393280909696</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>5.903482474376577</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-85.21246773840025</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.05278299589951983</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.1309981862306162</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.0683738848306184</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.188282882668265</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>67.59374077354592</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.338705531305017</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.2979312537319423</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2579455584567395</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>149.9898559545547</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.09207799637997201</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.129231463613454</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.156058177464197</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.1538001962328895</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-80.99487816234674</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.1400535260036518</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.690487</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>1.669436342604114</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.1271782370339476</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1788,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>628.311213</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>40.1069844899752</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>652.808768</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>45.3597352481757</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1083.643234</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>55.49616154854301</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>522.495911</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>51.71020577016662</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-19.3940299351256</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>229.990131</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>14.68095813987067</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>217.458312</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>15.10986362829488</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>232.636043</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>11.91389104759713</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>140.091663</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.86454624410417</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>5.203547185096946</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>16.525058</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.054843891353473</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>17.01926</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.18256550089699</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>130.874827</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.702437032730662</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>47.489693</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.699944526440593</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>30.84398358998097</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>134.685782</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>8.597396414273735</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>96.50198899999999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.705339889004621</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>71.218565</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.647286177302346</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>38.650052</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.825105804412008</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-19.13615181578114</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>62.021413</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.959012345745525</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>63.921734</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.441534907270594</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>58.088448</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.974859061697551</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>36.411383</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.603549937267063</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-5.513830578642365</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>20.817284</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.328829518297024</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>23.1128</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.605968761810557</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>19.674568</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.007585310245932</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>34.977854</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.461676904374559</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>218.7181495791031</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>50.478844</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.222215633735439</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>25.20621</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.751427168652733</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>19.606094</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.004078580312457</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>31.991073</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.166082131575613</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>130.15937012551</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>6.084112</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3883670712387429</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.703411</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.1878436890526046</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>15.813431</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.8098465379360622</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>20.175581</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.9967303534413</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>168.7172812001747</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>81.219453</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>5.184480675112939</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>46.737876</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.247532486300896</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>45.128656</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.311154728111028</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>15.858895</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.56951797415591</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-39.36611767386715</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>49.911527</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.18600209234206</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>38.977966</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.708343246811896</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>33.033588</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.691735138149732</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>15.336944</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.517861696960768</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-18.80929320153325</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>286.5432</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>18.2909097280552</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>254.732843</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>17.69984547372854</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>242.927925</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.44096483737409</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>106.951877</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>10.5847786571014</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-31.99351549361779</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2246,447 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>93.901972</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>30.96902940469686</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>62.493421</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>30.45091823106213</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>53.471251</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>25.98682337043041</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>38.19088</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>30.67425502995189</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>75.45472922064795</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>52.594951</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>17.34590391837128</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>45.896274</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>22.363693078739</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>56.336211</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>27.37918296724157</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>26.983744</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.67287700935234</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-14.05843343064382</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1.995204</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.6580216584202172</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.862599</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.9075811331605304</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>33.33118</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>16.19882593336039</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>22.284603</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>17.89860814056212</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-23.78802851900384</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>RUBBER TYRES, INTERCHANGEABLE TYRE TREADS, TYRE FLAPS AND INNER TUBES FOR WHEELS OF ALL KINDS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>90.980458</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>30.00550913941177</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>53.308476</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>25.97540697441636</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>15.700454</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.630360563914385</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>9.012860999999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.238974248917732</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-30.72447878647523</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>0.904111</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2981773390670633</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.08042763593148282</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.906551</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.9265764903034992</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>5.368581</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.311951511537679</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>11.770661</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.88198393343346</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3.77372</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.83880538636097</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>5.482132</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.664295173819375</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>4.775954</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.83596374336802</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>154.4827439216083</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3027579547904672</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>3.797613</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.050177153997517</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>0.832158</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2744471178023155</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1.459338</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.7110857654837256</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>0.59436</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2888566855944518</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.614957</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.903471010364511</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>508.2100074029208</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>7.598694</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.506062150891715</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>3.728107</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.816579723066374</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>3.652347</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.775026665759539</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.737735</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.395718730871701</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-40.75341239765364</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.923599</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.634406208144867</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.533249</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.234366064836167</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2.143993</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.041972393696927</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.407068</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.130132709078302</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-27.1942851051984</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>39.792704</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>13.12370117496998</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>29.925478</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>14.58166746229893</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>33.144458</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>16.10807975587946</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7.330674</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>5.887870711998192</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-40.8285692468904</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
